--- a/biology/Histoire de la zoologie et de la botanique/Donald_Griffin/Donald_Griffin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Donald_Griffin/Donald_Griffin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donald Redfield Griffin, né le 3 août 1915 à Southampton (New York) et mort le 7 novembre 2003 à Lexington (Massachusetts)[1], est un zoologiste américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donald Redfield Griffin, né le 3 août 1915 à Southampton (New York) et mort le 7 novembre 2003 à Lexington (Massachusetts), est un zoologiste américain.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Travaux zoologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’émission d’ultrasons par les chauves-souris est prouvée en 1938, à l'aide d’appareils de détection et d’analyse, par G. W. Pierce (1872-1956) avec l'appui de Griffin, alors étudiant à l'Université Harvard.
-Ses travaux zoologiques, en collaboration avec Robert Galambos (1914-2010), portent sur l'écholocation chez les Chiroptères. À partir de 1940, les deux savants travaillent pour l'armée qui fait des expériences sur une espèce grégaire de chauve-souris, le molosse du Brésil, formant des colonies de millions d'individus. Les militaires pensent pouvoir équiper ces chauve-souris de mini-bombes incendiaires, les placer dans des caissons spéciaux  embarqués dans des bombardiers B-24, et les larguer par avion sur les villes japonaises dont les maisons ont des toitures en bois[2]. En passant avec un sonar devant les cages de molosses, Griffin détecte des crépitements dus aux ultrasons que les chauves-souris émettent la bouche ouverte. Elles utilisent les renseignements fournis par la réflexion des sons vocaux émis lors du vol, pour éviter les obstacles. En 1944, Griffin donne le nom d’écholocation à ce mode d’orientation. Lorsqu'il comprend le véritable projet militaire (le Bat Bomb Project), Griffin se retire, déconseillant son déploiement.
+Ses travaux zoologiques, en collaboration avec Robert Galambos (1914-2010), portent sur l'écholocation chez les Chiroptères. À partir de 1940, les deux savants travaillent pour l'armée qui fait des expériences sur une espèce grégaire de chauve-souris, le molosse du Brésil, formant des colonies de millions d'individus. Les militaires pensent pouvoir équiper ces chauve-souris de mini-bombes incendiaires, les placer dans des caissons spéciaux  embarqués dans des bombardiers B-24, et les larguer par avion sur les villes japonaises dont les maisons ont des toitures en bois. En passant avec un sonar devant les cages de molosses, Griffin détecte des crépitements dus aux ultrasons que les chauves-souris émettent la bouche ouverte. Elles utilisent les renseignements fournis par la réflexion des sons vocaux émis lors du vol, pour éviter les obstacles. En 1944, Griffin donne le nom d’écholocation à ce mode d’orientation. Lorsqu'il comprend le véritable projet militaire (le Bat Bomb Project), Griffin se retire, déconseillant son déploiement.
 Plus tard, alors qu'il est à l'Université Cornell, Griffin découvre que les chauves-souris détectent également par écholocation leurs proies constituées d'insectes.
 En collaboration avec quelques collègues à Harvard, notamment Grinnell et Novick, il commence à se rendre compte de l'étendue des spécialisations de l'echolocation parmi divers groupes de Chiroptères et d'autres animaux.
 Dans la première publication en 1958 de son ouvrage Listening in the Dark, il passe en revue l'ensemble des données disponibles sur l'écholocation chez les chauves-souris, les baleines, les oiseaux et les personnes aveugles, en incluant des comparaisons avec les systèmes artificiels appelés « radar » et « sonar ».
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) George W. Pierce &amp; Donald R. Griffin, "Experimental determination of supersonic notes emitted by bats", Journal of Mammalogy, Vol.19, No.4, November 1938, p. 454-455. JSTOR:1374231
 (en) Donald R. Griffin &amp; Robert Galambos, "Obstacle Avoidance by Flying Bats", Anatomical Record, Vol.78, 1940, p. 95.
